--- a/codebooks/addhealthitems.xlsx
+++ b/codebooks/addhealthitems.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\MISC\ADDHEALTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\OneDrive\Documents\INCH\thesis\ADDHEALTH\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DEED0-FEB4-436A-ACD9-960D97946FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF89F9-C4D4-4654-B080-65D7C7510AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="144" windowWidth="17532" windowHeight="12108" xr2:uid="{876B45A6-B13A-4D9C-9EFB-1DB2506674CB}"/>
+    <workbookView xWindow="24210" yWindow="1125" windowWidth="13845" windowHeight="15375" xr2:uid="{876B45A6-B13A-4D9C-9EFB-1DB2506674CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>W1</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>H5SS0A</t>
+  </si>
+  <si>
+    <t>H1FS14</t>
+  </si>
+  <si>
+    <t>People were unfriendly to you</t>
   </si>
 </sst>
 </file>
@@ -926,18 +932,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B97DDBF-04E7-4863-857E-C6AC1C8DD436}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>172</v>
       </c>
@@ -951,7 +957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -974,7 +980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>81</v>
       </c>
@@ -982,7 +988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -990,7 +996,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>104</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>85</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>89</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>101</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>92</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>93</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>94</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>138</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>106</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>120</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>117</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>114</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>110</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>123</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>126</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>129</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>132</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>135</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>108</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
@@ -1284,301 +1290,309 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>30</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>37</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>42</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>46</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>47</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>52</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>56</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>57</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>61</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>62</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>65</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>66</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>69</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>72</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>75</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>77</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G42" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
         <v>141</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G43" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
         <v>143</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G44" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
         <v>146</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G45" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
         <v>148</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G46" t="s">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
         <v>150</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G47" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
         <v>152</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="G48" t="s">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
         <v>154</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G49" t="s">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
         <v>156</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G50" t="s">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
         <v>158</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="G52" t="s">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
         <v>176</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>160</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E62" t="s">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
         <v>162</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
         <v>164</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
         <v>166</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E65" t="s">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
         <v>168</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E66" t="s">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>170</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>169</v>
       </c>
     </row>
